--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H2">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I2">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J2">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N2">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O2">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P2">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q2">
-        <v>1669.664770497154</v>
+        <v>8985.421984612691</v>
       </c>
       <c r="R2">
-        <v>15026.98293447438</v>
+        <v>80868.79786151421</v>
       </c>
       <c r="S2">
-        <v>0.004430824090492062</v>
+        <v>0.02081711084110793</v>
       </c>
       <c r="T2">
-        <v>0.004430824090492062</v>
+        <v>0.02081711084110793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H3">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I3">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J3">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O3">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P3">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q3">
-        <v>25.18574385343333</v>
+        <v>46.70914254626668</v>
       </c>
       <c r="R3">
-        <v>226.6716946809</v>
+        <v>420.3822829164</v>
       </c>
       <c r="S3">
-        <v>6.683593172390349E-05</v>
+        <v>0.0001082141049517616</v>
       </c>
       <c r="T3">
-        <v>6.683593172390349E-05</v>
+        <v>0.0001082141049517616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H4">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I4">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J4">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N4">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O4">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P4">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q4">
-        <v>27160.07158105497</v>
+        <v>47068.43205651917</v>
       </c>
       <c r="R4">
-        <v>244440.6442294947</v>
+        <v>423615.8885086725</v>
       </c>
       <c r="S4">
-        <v>0.07207524623340689</v>
+        <v>0.1090464943010634</v>
       </c>
       <c r="T4">
-        <v>0.07207524623340689</v>
+        <v>0.1090464943010633</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H5">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I5">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J5">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N5">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O5">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P5">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q5">
-        <v>3745.047788031201</v>
+        <v>1748.258097019317</v>
       </c>
       <c r="R5">
-        <v>33705.43009228081</v>
+        <v>15734.32287317386</v>
       </c>
       <c r="S5">
-        <v>0.009938311122364872</v>
+        <v>0.004050303107281863</v>
       </c>
       <c r="T5">
-        <v>0.009938311122364872</v>
+        <v>0.004050303107281863</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H6">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I6">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J6">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N6">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O6">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P6">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q6">
-        <v>51382.24904600377</v>
+        <v>107955.1475041784</v>
       </c>
       <c r="R6">
-        <v>462440.2414140339</v>
+        <v>971596.3275376059</v>
       </c>
       <c r="S6">
-        <v>0.1363541418130942</v>
+        <v>0.2501067034259613</v>
       </c>
       <c r="T6">
-        <v>0.1363541418130942</v>
+        <v>0.2501067034259613</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>109.1118546666667</v>
+        <v>202.3573813333333</v>
       </c>
       <c r="H7">
-        <v>327.335564</v>
+        <v>607.072144</v>
       </c>
       <c r="I7">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="J7">
-        <v>0.30290688829861</v>
+        <v>0.4567501787232752</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N7">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O7">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P7">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q7">
-        <v>30162.00115331607</v>
+        <v>31346.01656618757</v>
       </c>
       <c r="R7">
-        <v>271458.0103798446</v>
+        <v>282114.1490956881</v>
       </c>
       <c r="S7">
-        <v>0.08004152910752808</v>
+        <v>0.072621352942909</v>
       </c>
       <c r="T7">
-        <v>0.08004152910752811</v>
+        <v>0.07262135294290899</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>682.901626</v>
       </c>
       <c r="I8">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J8">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N8">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O8">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P8">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q8">
-        <v>3483.326934336482</v>
+        <v>10107.79253213133</v>
       </c>
       <c r="R8">
-        <v>31349.94240902834</v>
+        <v>90970.13278918194</v>
       </c>
       <c r="S8">
-        <v>0.009243777055392002</v>
+        <v>0.02341737960227481</v>
       </c>
       <c r="T8">
-        <v>0.009243777055392002</v>
+        <v>0.0234173796022748</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>682.901626</v>
       </c>
       <c r="I9">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J9">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O9">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P9">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q9">
         <v>52.54358927381667</v>
@@ -1013,10 +1013,10 @@
         <v>472.89230346435</v>
       </c>
       <c r="S9">
-        <v>0.0001394360145036935</v>
+        <v>0.0001217311467147348</v>
       </c>
       <c r="T9">
-        <v>0.0001394360145036935</v>
+        <v>0.0001217311467147348</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>682.901626</v>
       </c>
       <c r="I10">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J10">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N10">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O10">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P10">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q10">
-        <v>56662.51726005192</v>
+        <v>52947.75769627054</v>
       </c>
       <c r="R10">
-        <v>509962.6553404672</v>
+        <v>476529.8192664349</v>
       </c>
       <c r="S10">
-        <v>0.1503664992757828</v>
+        <v>0.1226675099554492</v>
       </c>
       <c r="T10">
-        <v>0.1503664992757828</v>
+        <v>0.1226675099554492</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>682.901626</v>
       </c>
       <c r="I11">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J11">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N11">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O11">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P11">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q11">
-        <v>7813.080841696171</v>
+        <v>1966.633305319569</v>
       </c>
       <c r="R11">
-        <v>70317.72757526554</v>
+        <v>17699.69974787612</v>
       </c>
       <c r="S11">
-        <v>0.0207337349544972</v>
+        <v>0.004556227138887856</v>
       </c>
       <c r="T11">
-        <v>0.0207337349544972</v>
+        <v>0.004556227138887856</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>682.901626</v>
       </c>
       <c r="I12">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J12">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N12">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O12">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P12">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q12">
-        <v>107195.8726154575</v>
+        <v>121439.842849507</v>
       </c>
       <c r="R12">
-        <v>964762.8535391171</v>
+        <v>1092958.585645563</v>
       </c>
       <c r="S12">
-        <v>0.2844679142654863</v>
+        <v>0.2813475731528356</v>
       </c>
       <c r="T12">
-        <v>0.2844679142654863</v>
+        <v>0.2813475731528356</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>682.901626</v>
       </c>
       <c r="I13">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="J13">
-        <v>0.6319374650831437</v>
+        <v>0.5138029191566978</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N13">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O13">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P13">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q13">
-        <v>62925.27270582006</v>
+        <v>35261.45268439862</v>
       </c>
       <c r="R13">
-        <v>566327.4543523806</v>
+        <v>317353.0741595876</v>
       </c>
       <c r="S13">
-        <v>0.1669861035174817</v>
+        <v>0.08169249816053566</v>
       </c>
       <c r="T13">
-        <v>0.1669861035174817</v>
+        <v>0.08169249816053566</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H14">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I14">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J14">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N14">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O14">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P14">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q14">
-        <v>2.977342251751999</v>
+        <v>7.814819190787555</v>
       </c>
       <c r="R14">
-        <v>26.796080265768</v>
+        <v>70.33337271708801</v>
       </c>
       <c r="S14">
-        <v>7.901034990859039E-06</v>
+        <v>1.810509930156099E-05</v>
       </c>
       <c r="T14">
-        <v>7.901034990859039E-06</v>
+        <v>1.810509930156098E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H15">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I15">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J15">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O15">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P15">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q15">
-        <v>0.0449111586</v>
+        <v>0.04062396893333334</v>
       </c>
       <c r="R15">
-        <v>0.4042004274000001</v>
+        <v>0.3656157204000001</v>
       </c>
       <c r="S15">
-        <v>1.191816746528934E-07</v>
+        <v>9.411618792518817E-08</v>
       </c>
       <c r="T15">
-        <v>1.191816746528934E-07</v>
+        <v>9.411618792518816E-08</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H16">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I16">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J16">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N16">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O16">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P16">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q16">
-        <v>48.43177511304</v>
+        <v>40.93645092522844</v>
       </c>
       <c r="R16">
-        <v>435.88597601736</v>
+        <v>368.428058327056</v>
       </c>
       <c r="S16">
-        <v>0.0001285244078380207</v>
+        <v>9.484013525590564E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001285244078380207</v>
+        <v>9.484013525590564E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H17">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I17">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J17">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N17">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O17">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P17">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q17">
-        <v>6.678160317663999</v>
+        <v>1.520498530890666</v>
       </c>
       <c r="R17">
-        <v>60.103442858976</v>
+        <v>13.684486778016</v>
       </c>
       <c r="S17">
-        <v>1.772197278071766E-05</v>
+        <v>3.522637724248977E-06</v>
       </c>
       <c r="T17">
-        <v>1.772197278071766E-05</v>
+        <v>3.522637724248977E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H18">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I18">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J18">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N18">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O18">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P18">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q18">
-        <v>91.62470441845599</v>
+        <v>93.89096693563022</v>
       </c>
       <c r="R18">
-        <v>824.622339766104</v>
+        <v>845.0187024206721</v>
       </c>
       <c r="S18">
-        <v>0.0002431463817138743</v>
+        <v>0.0002175233026367501</v>
       </c>
       <c r="T18">
-        <v>0.0002431463817138743</v>
+        <v>0.0002175233026367501</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.194568</v>
+        <v>0.1759946666666667</v>
       </c>
       <c r="H19">
-        <v>0.583704</v>
+        <v>0.527984</v>
       </c>
       <c r="I19">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="J19">
-        <v>0.0005401428435299865</v>
+        <v>0.0003972456795234369</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N19">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O19">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P19">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q19">
-        <v>53.784808793936</v>
+        <v>27.262320260048</v>
       </c>
       <c r="R19">
-        <v>484.0632791454241</v>
+        <v>245.360882340432</v>
       </c>
       <c r="S19">
-        <v>0.0001427298645318618</v>
+        <v>6.316038841704596E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001427298645318618</v>
+        <v>6.316038841704596E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H20">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I20">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J20">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N20">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O20">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P20">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q20">
-        <v>337.4294949665593</v>
+        <v>536.1929170533579</v>
       </c>
       <c r="R20">
-        <v>3036.865454699034</v>
+        <v>4825.736253480221</v>
       </c>
       <c r="S20">
-        <v>0.000895443661241788</v>
+        <v>0.001242232964198161</v>
       </c>
       <c r="T20">
-        <v>0.000895443661241788</v>
+        <v>0.00124223296419816</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H21">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I21">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J21">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O21">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P21">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q21">
-        <v>5.089891683041667</v>
+        <v>2.787304974416667</v>
       </c>
       <c r="R21">
-        <v>45.809025147375</v>
+        <v>25.08574476975</v>
       </c>
       <c r="S21">
-        <v>1.350715130708608E-05</v>
+        <v>6.457530508836122E-06</v>
       </c>
       <c r="T21">
-        <v>1.350715130708608E-05</v>
+        <v>6.457530508836121E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H22">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I22">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J22">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N22">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O22">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P22">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q22">
-        <v>5488.891781625215</v>
+        <v>2808.745090517932</v>
       </c>
       <c r="R22">
-        <v>49400.02603462694</v>
+        <v>25278.70581466139</v>
       </c>
       <c r="S22">
-        <v>0.01456598615833965</v>
+        <v>0.006507202218644583</v>
       </c>
       <c r="T22">
-        <v>0.01456598615833965</v>
+        <v>0.006507202218644583</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H23">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I23">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J23">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N23">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O23">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P23">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q23">
-        <v>756.8522772177354</v>
+        <v>104.3249399313933</v>
       </c>
       <c r="R23">
-        <v>6811.670494959619</v>
+        <v>938.92445938254</v>
       </c>
       <c r="S23">
-        <v>0.002008474612446663</v>
+        <v>0.0002416963657091229</v>
       </c>
       <c r="T23">
-        <v>0.002008474612446663</v>
+        <v>0.0002416963657091229</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H24">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I24">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J24">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N24">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O24">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P24">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q24">
-        <v>10384.0523272684</v>
+        <v>6442.077573019632</v>
       </c>
       <c r="R24">
-        <v>93456.4709454156</v>
+        <v>57978.69815717668</v>
       </c>
       <c r="S24">
-        <v>0.02755637540036927</v>
+        <v>0.01492477961683018</v>
       </c>
       <c r="T24">
-        <v>0.02755637540036928</v>
+        <v>0.01492477961683018</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>22.05086833333333</v>
+        <v>12.07540333333333</v>
       </c>
       <c r="H25">
-        <v>66.15260499999999</v>
+        <v>36.22621</v>
       </c>
       <c r="I25">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="J25">
-        <v>0.06121571236725463</v>
+        <v>0.02725594981667764</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N25">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O25">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P25">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q25">
-        <v>6095.564209163847</v>
+        <v>1870.53118811887</v>
       </c>
       <c r="R25">
-        <v>54860.07788247463</v>
+        <v>16834.78069306983</v>
       </c>
       <c r="S25">
-        <v>0.01617592538355016</v>
+        <v>0.004333581120786757</v>
       </c>
       <c r="T25">
-        <v>0.01617592538355016</v>
+        <v>0.004333581120786757</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H26">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I26">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J26">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N26">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O26">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P26">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q26">
-        <v>11.82803716380633</v>
+        <v>34.15750804619689</v>
       </c>
       <c r="R26">
-        <v>106.452334474257</v>
+        <v>307.417572415772</v>
       </c>
       <c r="S26">
-        <v>3.138830796137819E-05</v>
+        <v>7.913491790050485E-05</v>
       </c>
       <c r="T26">
-        <v>3.138830796137819E-05</v>
+        <v>7.913491790050484E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H27">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I27">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J27">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O27">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P27">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q27">
-        <v>0.178417799525</v>
+        <v>0.1775618234833333</v>
       </c>
       <c r="R27">
-        <v>1.605760195725</v>
+        <v>1.59805641135</v>
       </c>
       <c r="S27">
-        <v>4.734710214150145E-07</v>
+        <v>4.113690115980811E-07</v>
       </c>
       <c r="T27">
-        <v>4.734710214150146E-07</v>
+        <v>4.113690115980811E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H28">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I28">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J28">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N28">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O28">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P28">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q28">
-        <v>192.40409315021</v>
+        <v>178.9276396195571</v>
       </c>
       <c r="R28">
-        <v>1731.63683835189</v>
+        <v>1610.348756576014</v>
       </c>
       <c r="S28">
-        <v>0.0005105867393880442</v>
+        <v>0.0004145332865698113</v>
       </c>
       <c r="T28">
-        <v>0.0005105867393880443</v>
+        <v>0.0004145332865698113</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H29">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I29">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J29">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N29">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O29">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P29">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q29">
-        <v>26.53021444770267</v>
+        <v>6.645891547222665</v>
       </c>
       <c r="R29">
-        <v>238.771930029324</v>
+        <v>59.813023925004</v>
       </c>
       <c r="S29">
-        <v>7.040378127269225E-05</v>
+        <v>1.539696869144648E-05</v>
       </c>
       <c r="T29">
-        <v>7.040378127269226E-05</v>
+        <v>1.539696869144648E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H30">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I30">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J30">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N30">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O30">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P30">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q30">
-        <v>363.9959122423857</v>
+        <v>410.3846013929075</v>
       </c>
       <c r="R30">
-        <v>3275.963210181471</v>
+        <v>3693.461412536168</v>
       </c>
       <c r="S30">
-        <v>0.0009659435147116233</v>
+        <v>0.0009507646662905495</v>
       </c>
       <c r="T30">
-        <v>0.0009659435147116235</v>
+        <v>0.0009507646662905495</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.772957</v>
+        <v>0.7692486666666666</v>
       </c>
       <c r="H31">
-        <v>2.318871</v>
+        <v>2.307746</v>
       </c>
       <c r="I31">
-        <v>0.002145816331084288</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="J31">
-        <v>0.002145816331084289</v>
+        <v>0.001736306645537542</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N31">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O31">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P31">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q31">
-        <v>213.6699994394473</v>
+        <v>119.159880850262</v>
       </c>
       <c r="R31">
-        <v>1923.029994955026</v>
+        <v>1072.438927652358</v>
       </c>
       <c r="S31">
-        <v>0.0005670205167291349</v>
+        <v>0.0002760654370736313</v>
       </c>
       <c r="T31">
-        <v>0.0005670205167291351</v>
+        <v>0.0002760654370736313</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H32">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I32">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J32">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N32">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O32">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P32">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q32">
-        <v>6.912084501837221</v>
+        <v>1.129201587329111</v>
       </c>
       <c r="R32">
-        <v>62.20876051653499</v>
+        <v>10.162814285962</v>
       </c>
       <c r="S32">
-        <v>1.834274224827659E-05</v>
+        <v>2.616094674867778E-06</v>
       </c>
       <c r="T32">
-        <v>1.834274224827659E-05</v>
+        <v>2.616094674867778E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H33">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I33">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J33">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O33">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P33">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q33">
-        <v>0.1042640372083333</v>
+        <v>0.005869956691666667</v>
       </c>
       <c r="R33">
-        <v>0.9383763348750001</v>
+        <v>0.052829610225</v>
       </c>
       <c r="S33">
-        <v>2.766876417336683E-07</v>
+        <v>1.359931000371324E-08</v>
       </c>
       <c r="T33">
-        <v>2.766876417336683E-07</v>
+        <v>1.359931000371324E-08</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H34">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I34">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J34">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N34">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O34">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P34">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q34">
-        <v>112.4373665668833</v>
+        <v>5.915108748629889</v>
       </c>
       <c r="R34">
-        <v>1011.93629910195</v>
+        <v>53.235978737669</v>
       </c>
       <c r="S34">
-        <v>0.0002983773756618785</v>
+        <v>1.370391670734018E-05</v>
       </c>
       <c r="T34">
-        <v>0.0002983773756618785</v>
+        <v>1.370391670734018E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H35">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I35">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J35">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N35">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O35">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P35">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q35">
-        <v>15.50376292995778</v>
+        <v>0.2197042967593333</v>
       </c>
       <c r="R35">
-        <v>139.53386636962</v>
+        <v>1.977338670834</v>
       </c>
       <c r="S35">
-        <v>4.114265779404358E-05</v>
+        <v>5.090032171821091E-07</v>
       </c>
       <c r="T35">
-        <v>4.114265779404358E-05</v>
+        <v>5.090032171821091E-07</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H36">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I36">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J36">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N36">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O36">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P36">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q36">
-        <v>212.7124280131228</v>
+        <v>13.56676671733644</v>
       </c>
       <c r="R36">
-        <v>1914.411852118105</v>
+        <v>122.100900456028</v>
       </c>
       <c r="S36">
-        <v>0.0005644793895405541</v>
+        <v>3.143100980609318E-05</v>
       </c>
       <c r="T36">
-        <v>0.0005644793895405541</v>
+        <v>3.143100980609318E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.4517016666666667</v>
+        <v>0.02543033333333333</v>
       </c>
       <c r="H37">
-        <v>1.355105</v>
+        <v>0.076291</v>
       </c>
       <c r="I37">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="J37">
-        <v>0.001253975076377243</v>
+        <v>5.739997828821048E-05</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N37">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O37">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P37">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q37">
-        <v>124.8647659099589</v>
+        <v>3.939266483377</v>
       </c>
       <c r="R37">
-        <v>1123.78289318963</v>
+        <v>35.45339835039299</v>
       </c>
       <c r="S37">
-        <v>0.0003313562234907566</v>
+        <v>9.126354572723518E-06</v>
       </c>
       <c r="T37">
-        <v>0.0003313562234907567</v>
+        <v>9.126354572723518E-06</v>
       </c>
     </row>
   </sheetData>
